--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -233,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,13 +241,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +547,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J15" sqref="J1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,553 +560,569 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>2.8</v>
       </c>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>13</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4">
         <v>1.4</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>2.7</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1.9</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6">
         <v>1.3</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>3.5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1.6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="J8" s="1">
         <v>8</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>3.4</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>3.8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>6</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>3.3</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1.7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>5</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>2.4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>4</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>3.2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>1.8</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>3</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2.6</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>3.7</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>1.5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>3.6</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>2.5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
